--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H2">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I2">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J2">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N2">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q2">
-        <v>0.002171158743555556</v>
+        <v>0.05225994111111112</v>
       </c>
       <c r="R2">
-        <v>0.019540428692</v>
+        <v>0.47033947</v>
       </c>
       <c r="S2">
-        <v>4.592115266292262E-06</v>
+        <v>0.0001086875967444091</v>
       </c>
       <c r="T2">
-        <v>4.592115266292261E-06</v>
+        <v>0.0001086875967444091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H3">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I3">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J3">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P3">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q3">
-        <v>0.9999729490163335</v>
+        <v>4.991030153336667</v>
       </c>
       <c r="R3">
-        <v>8.999756541147001</v>
+        <v>44.91927138003</v>
       </c>
       <c r="S3">
-        <v>0.002114995533462106</v>
+        <v>0.01038009345421378</v>
       </c>
       <c r="T3">
-        <v>0.002114995533462105</v>
+        <v>0.01038009345421378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H4">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I4">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J4">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q4">
-        <v>0.1384149828741111</v>
+        <v>0.6908520414255557</v>
       </c>
       <c r="R4">
-        <v>1.245734845867</v>
+        <v>6.217668372830001</v>
       </c>
       <c r="S4">
-        <v>0.0002927549898534277</v>
+        <v>0.001436799324531733</v>
       </c>
       <c r="T4">
-        <v>0.0002927549898534277</v>
+        <v>0.001436799324531733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q5">
-        <v>0.4912138518515555</v>
+        <v>2.368896036222222</v>
       </c>
       <c r="R5">
-        <v>4.420924666664</v>
+        <v>21.320064326</v>
       </c>
       <c r="S5">
-        <v>0.001038943207076482</v>
+        <v>0.004926710815975428</v>
       </c>
       <c r="T5">
-        <v>0.001038943207076482</v>
+        <v>0.004926710815975428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.199846</v>
       </c>
       <c r="I6">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J6">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P6">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q6">
         <v>226.2388991554193</v>
@@ -818,10 +818,10 @@
         <v>2036.150092398774</v>
       </c>
       <c r="S6">
-        <v>0.4785072052996907</v>
+        <v>0.4705202821990025</v>
       </c>
       <c r="T6">
-        <v>0.4785072052996906</v>
+        <v>0.4705202821990025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.199846</v>
       </c>
       <c r="I7">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J7">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q7">
         <v>31.31570047255711</v>
@@ -880,10 +880,10 @@
         <v>281.841304253014</v>
       </c>
       <c r="S7">
-        <v>0.06623435833124083</v>
+        <v>0.06512881860110507</v>
       </c>
       <c r="T7">
-        <v>0.06623435833124083</v>
+        <v>0.06512881860110507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H8">
         <v>20.033078</v>
       </c>
       <c r="I8">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J8">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N8">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q8">
-        <v>0.4066358690391111</v>
+        <v>1.961015746444444</v>
       </c>
       <c r="R8">
-        <v>3.659722821352</v>
+        <v>17.649141718</v>
       </c>
       <c r="S8">
-        <v>0.0008600563121324538</v>
+        <v>0.004078421906481529</v>
       </c>
       <c r="T8">
-        <v>0.0008600563121324537</v>
+        <v>0.004078421906481528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H9">
         <v>20.033078</v>
       </c>
       <c r="I9">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J9">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.138969</v>
       </c>
       <c r="O9">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P9">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q9">
         <v>187.2847254240647</v>
@@ -1004,10 +1004,10 @@
         <v>1685.562528816582</v>
       </c>
       <c r="S9">
-        <v>0.3961170731140487</v>
+        <v>0.3895053511445746</v>
       </c>
       <c r="T9">
-        <v>0.3961170731140486</v>
+        <v>0.3895053511445746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H10">
         <v>20.033078</v>
       </c>
       <c r="I10">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J10">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>11.646409</v>
       </c>
       <c r="O10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q10">
-        <v>25.92371332410023</v>
+        <v>25.92371332410022</v>
       </c>
       <c r="R10">
         <v>233.313419916902</v>
       </c>
       <c r="S10">
-        <v>0.05483002109722921</v>
+        <v>0.05391483495737076</v>
       </c>
       <c r="T10">
-        <v>0.0548300210972292</v>
+        <v>0.05391483495737075</v>
       </c>
     </row>
   </sheetData>
